--- a/Homework1/Assignment_1/Assignment_1_result_plot.xlsx
+++ b/Homework1/Assignment_1/Assignment_1_result_plot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ExeTime" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>1024x1024</t>
   </si>
@@ -72,24 +72,6 @@
   </si>
   <si>
     <t>Performance (Execution time in ms) of matrix matrix multiplication</t>
-  </si>
-  <si>
-    <t>mv (col) -O0</t>
-  </si>
-  <si>
-    <t>mv (row) -O3</t>
-  </si>
-  <si>
-    <t>mm (col, col) -Ofast</t>
-  </si>
-  <si>
-    <t>mm (row, row) -Ofast</t>
-  </si>
-  <si>
-    <t>mm (row, col) -Ofast</t>
-  </si>
-  <si>
-    <t>mm (col, row) -Ofast</t>
   </si>
 </sst>
 </file>
@@ -137,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,17 +142,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -219,7 +190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -231,7 +202,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -322,7 +292,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.221763223305696"/>
+          <c:y val="0.0569395017793594"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -376,7 +353,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.000093</c:v>
+                  <c:v>3.000021</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.000063000000001</c:v>
@@ -395,7 +372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mv (col) -O0</c:v>
+                  <c:v>mv (col) -O3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -424,97 +401,7 @@
                   <c:v>6.000042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.000015</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mv (row) -O3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$22:$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$27:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.999855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.000021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mv (col) -O3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$22:$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$28:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9.000063000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.999971</c:v>
+                  <c:v>31.000137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,11 +418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1498138720"/>
-        <c:axId val="1498243536"/>
+        <c:axId val="1811373488"/>
+        <c:axId val="1811376048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1498138720"/>
+        <c:axId val="1811373488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1498243536"/>
+        <c:crossAx val="1811376048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1498243536"/>
+        <c:axId val="1811376048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1498138720"/>
+        <c:crossAx val="1811373488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -642,7 +529,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.218393630640268"/>
+          <c:y val="0.0415913200723327"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -693,13 +587,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$32:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7023.999929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>141302.999973</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6456.00009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140391.000032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,13 +632,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$33:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6246.000051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120994.000196</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6157.999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117842.000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,13 +677,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$34:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12865.00001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167387.999773</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12727.999926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166770.999908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,13 +722,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$35:$C$35</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2659.999847</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21277.000189</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2621.999979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21154.000044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,13 +767,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$36:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6472.000122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63160.000086</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6347.000122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63353.999853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,13 +812,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$37:$C$37</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6481.999874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60371.000051</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6341.00008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58741.000175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,13 +857,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$38:$C$38</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13789.999962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130375.0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13778.999805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129912.999868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,193 +902,13 @@
             <c:numRef>
               <c:f>ExeTime!$B$39:$C$39</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>841.00008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7323.999882</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mm (row, row) -Ofast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$40:$C$40</c:f>
-              <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6814.999987</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67376.000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mm (row, col) -Ofast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$41:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6805.000053</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62822.999958</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mm (col, row) -Ofast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$42:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13678.999954</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130352.999884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ExeTime!$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mm (col, col) -Ofast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>ExeTime!$B$30:$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ExeTime!$B$43:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>154.999926</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1958.000067</c:v>
+                  <c:v>828.0000690000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7271.000147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,11 +925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1497879376"/>
-        <c:axId val="1497877136"/>
+        <c:axId val="1810494480"/>
+        <c:axId val="1808645056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1497879376"/>
+        <c:axId val="1810494480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1497877136"/>
+        <c:crossAx val="1808645056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1497877136"/>
+        <c:axId val="1808645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1497879376"/>
+        <c:crossAx val="1810494480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,14 +986,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1301,15 +1015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1653,39 +1367,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A22:AA44"/>
+  <dimension ref="A22:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -1693,73 +1401,44 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3">
-        <v>2.0000930000000001</v>
+        <v>3.0000209999999998</v>
       </c>
       <c r="C25" s="3">
         <v>9.0000630000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3">
         <v>6.0000419999999997</v>
       </c>
       <c r="C26" s="3">
-        <v>59.000014999999998</v>
+        <v>31.000136999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.9998549999999999</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3.0000209999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9.0000630000000008</v>
-      </c>
-      <c r="C28" s="3">
-        <v>29.999970999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -1768,236 +1447,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
-        <v>7023.9999289999996</v>
-      </c>
-      <c r="C32" s="3">
-        <v>141302.999973</v>
-      </c>
-      <c r="D32">
-        <f>2048^3 / (B32*10000)</f>
-        <v>122.29405863936194</v>
-      </c>
-      <c r="E32">
-        <f>2048^3 / (C32*10000)</f>
-        <v>6.0790886206530317</v>
+      <c r="B32">
+        <v>6456.0000899999995</v>
+      </c>
+      <c r="C32">
+        <v>140391.00003200001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3">
-        <v>6246.000051</v>
-      </c>
-      <c r="C33" s="3">
-        <v>120994.00019599999</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33:D43" si="0">2048^3 / (B33*10000)</f>
-        <v>137.52696961033055</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33:E43" si="1">2048^3 / (C33*10000)</f>
-        <v>7.099471525931067</v>
+      <c r="B33">
+        <v>6157.999992</v>
+      </c>
+      <c r="C33">
+        <v>117842.000008</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3">
-        <v>12865.00001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>167387.99977299999</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>66.769798564500746</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>5.1317505458271055</v>
+      <c r="B34">
+        <v>12727.999926</v>
+      </c>
+      <c r="C34">
+        <v>166770.999908</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3">
-        <v>2659.999847</v>
-      </c>
-      <c r="C35" s="3">
-        <v>21277.000188999998</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>322.92989045423809</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>40.371925157198206</v>
+      <c r="B35">
+        <v>2621.9999790000002</v>
+      </c>
+      <c r="C35">
+        <v>21154.000044</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3">
-        <v>6472.0001220000004</v>
-      </c>
-      <c r="C36" s="3">
-        <v>63160.000086</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>132.72457401229943</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>13.600276409600637</v>
+      <c r="B36">
+        <v>6347.0001220000004</v>
+      </c>
+      <c r="C36">
+        <v>63353.999853000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3">
-        <v>6481.9998740000001</v>
-      </c>
-      <c r="C37" s="3">
-        <v>60371.000051000003</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>132.51982040998107</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>14.228577603060121</v>
+      <c r="B37">
+        <v>6341.0000799999998</v>
+      </c>
+      <c r="C37">
+        <v>58741.000175000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="3">
-        <v>13789.999962</v>
-      </c>
-      <c r="C38" s="3">
-        <v>130375</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>62.291041447937602</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>6.5886363121764138</v>
+      <c r="B38">
+        <v>13778.999804999999</v>
+      </c>
+      <c r="C38">
+        <v>129912.999868</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="3">
-        <v>841.00008000000003</v>
-      </c>
-      <c r="C39" s="3">
-        <v>7323.9998820000001</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1021.3952169897533</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>117.28474509006006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40">
-        <v>6814.9999870000001</v>
-      </c>
-      <c r="C40">
-        <v>67376.000004000001</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>126.04452836956402</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>12.749249868632793</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41">
-        <v>6805.0000529999998</v>
-      </c>
-      <c r="C41">
-        <v>62822.999958</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>126.22975055250892</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>13.673232092932137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>13678.999954000001</v>
-      </c>
-      <c r="C42">
-        <v>130352.999884</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>62.796510131489093</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>6.5897482985770228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>154.99992599999999</v>
-      </c>
-      <c r="C43">
-        <v>1958.0000669999999</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>5541.8959309696711</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>438.70961685722972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="B39">
+        <v>828.00006900000005</v>
+      </c>
+      <c r="C39">
+        <v>7271.0001469999997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Homework1/Assignment_1/Assignment_1_result_plot.xlsx
+++ b/Homework1/Assignment_1/Assignment_1_result_plot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExeTime" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>1024x1024</t>
   </si>
@@ -73,12 +73,30 @@
   <si>
     <t>Performance (Execution time in ms) of matrix matrix multiplication</t>
   </si>
+  <si>
+    <t>Time 1024 (ms)</t>
+  </si>
+  <si>
+    <t>Time 2048 (ms)</t>
+  </si>
+  <si>
+    <t>Gflops 1024</t>
+  </si>
+  <si>
+    <t>Gflops 2048</t>
+  </si>
+  <si>
+    <t>efficiency 1024</t>
+  </si>
+  <si>
+    <t>efficiency 2048</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,7 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,6 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -256,12 +275,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -296,8 +318,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.221763223305696"/>
-          <c:y val="0.0569395017793594"/>
+          <c:x val="0.22176322330569601"/>
+          <c:y val="5.69395017793594E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -309,8 +331,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.094719474168293"/>
-          <c:y val="0.0338101430429129"/>
+          <c:x val="9.4719474168293002E-2"/>
+          <c:y val="3.3810143042912903E-2"/>
           <c:w val="0.736490791215201"/>
           <c:h val="0.852553372310906"/>
         </c:manualLayout>
@@ -353,15 +375,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.000021</c:v>
+                  <c:v>3.0000209999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.000063000000001</c:v>
+                  <c:v>9.0000630000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C90-6246-BDAE-E42C0FE2190C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -398,15 +425,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.000042</c:v>
+                  <c:v>6.0000419999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.000137</c:v>
+                  <c:v>31.000136999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C90-6246-BDAE-E42C0FE2190C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -463,7 +495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -477,7 +508,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -486,14 +516,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -533,8 +563,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.218393630640268"/>
-          <c:y val="0.0415913200723327"/>
+          <c:x val="0.21839363064026801"/>
+          <c:y val="4.1591320072332703E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -546,10 +576,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0650158983431036"/>
-          <c:y val="0.0326223337515684"/>
-          <c:w val="0.749669545712072"/>
-          <c:h val="0.857733429494462"/>
+          <c:x val="6.5015898343103604E-2"/>
+          <c:y val="3.2622333751568401E-2"/>
+          <c:w val="0.74966954571207201"/>
+          <c:h val="0.85773342949446196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -590,15 +620,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6456.00009</c:v>
+                  <c:v>6456.0000899999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140391.000032</c:v>
+                  <c:v>140391.00003200001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -644,6 +679,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -689,6 +729,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -725,7 +770,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2621.999979</c:v>
+                  <c:v>2621.9999790000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21154.000044</c:v>
@@ -734,6 +779,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -770,15 +820,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6347.000122</c:v>
+                  <c:v>6347.0001220000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63353.999853</c:v>
+                  <c:v>63353.999853000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -815,15 +870,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6341.00008</c:v>
+                  <c:v>6341.0000799999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58741.000175</c:v>
+                  <c:v>58741.000175000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -860,7 +920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13778.999805</c:v>
+                  <c:v>13778.999804999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>129912.999868</c:v>
@@ -869,6 +929,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -905,15 +970,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>828.0000690000001</c:v>
+                  <c:v>828.00006900000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7271.000147</c:v>
+                  <c:v>7271.0001469999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-38A0-1D46-9CD8-AC7879802B5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -954,7 +1024,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -965,7 +1035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -974,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -997,7 +1066,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1027,7 +1102,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1366,34 +1447,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A22:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A19:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41:AA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
+      <c r="X19" s="7"/>
+      <c r="Y19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="X20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>6456.0000899999995</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>140391.00003200001</v>
+      </c>
+      <c r="AA20" s="7">
+        <f>(1024*1024*1024/Y20)/100000</f>
+        <v>1.6631688491813512</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>(2048*2048*2048/Z20)/100000</f>
+        <v>0.6118579246562853</v>
+      </c>
+      <c r="AC20" s="7">
+        <f>AA20/13.6</f>
+        <v>0.12229182714568759</v>
+      </c>
+      <c r="AD20" s="7">
+        <f>AB20/13.6</f>
+        <v>4.4989553283550393E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="X21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>6157.999992</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>117842.000008</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" ref="AA21:AA27" si="0">(1024*1024*1024/Y21)/100000</f>
+        <v>1.7436535001541456</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" ref="AB21:AB27" si="1">(2048*2048*2048/Z21)/100000</f>
+        <v>0.72893659233693009</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" ref="AC21:AC27" si="2">AA21/13.6</f>
+        <v>0.12820981618780483</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" ref="AD21:AD27" si="3">AB21/13.6</f>
+        <v>5.3598278848303683E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>12727.999926</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>166770.999908</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.84360608912844515</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51507363970586473</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="2"/>
+        <v>6.2029859494738618E-2</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7873061743078293E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="1" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>2621.9999790000002</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>21154.000044</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0951252196787298</v>
+      </c>
+      <c r="AB23" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0606668120133618</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30111214850578893</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.29857844205980599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="1" customFormat="1">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -1401,8 +1611,33 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>6347.0001220000004</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>63353.999853000001</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6917312168912544</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3558630255281727</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.124392001242004</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="3"/>
+        <v>9.9695810700600934E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1412,8 +1647,33 @@
       <c r="C25" s="3">
         <v>9.0000630000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>6341.0000799999998</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>58741.000175000001</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6933319830521121</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4623405400672511</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12450970463618471</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.10752503971082729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -1423,22 +1683,84 @@
       <c r="C26" s="3">
         <v>31.000136999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>13778.999804999999</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>129912.999868</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77925962638476132</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.66120669992440539</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="2"/>
+        <v>5.7298501940055979E-2</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8618139700323929E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="X27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>828.00006900000005</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>7271.0001469999997</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="0"/>
+        <v>12.967895344462828</v>
+      </c>
+      <c r="AB27" s="7">
+        <f t="shared" si="1"/>
+        <v>11.813965642050206</v>
+      </c>
+      <c r="AC27" s="7">
+        <f t="shared" si="2"/>
+        <v>0.95352171650461981</v>
+      </c>
+      <c r="AD27" s="7">
+        <f>AB27/13.6</f>
+        <v>0.8686739442683975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X30" s="7"/>
+      <c r="Y30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -1446,8 +1768,22 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>6456.0000899999995</v>
+      </c>
+      <c r="Z31" s="7">
+        <f>(1024*1024*1024/Y31)/100000</f>
+        <v>1.6631688491813512</v>
+      </c>
+      <c r="AA31" s="7">
+        <f>Z31/13.6</f>
+        <v>0.12229182714568759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1457,8 +1793,22 @@
       <c r="C32">
         <v>140391.00003200001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>6157.999992</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" ref="Z32:Z38" si="4">(1024*1024*1024/Y32)/100000</f>
+        <v>1.7436535001541456</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" ref="AA32:AA38" si="5">Z32/13.6</f>
+        <v>0.12820981618780483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1468,8 +1818,22 @@
       <c r="C33">
         <v>117842.000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>12727.999926</v>
+      </c>
+      <c r="Z33" s="7">
+        <f t="shared" si="4"/>
+        <v>0.84360608912844515</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="5"/>
+        <v>6.2029859494738618E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1479,8 +1843,22 @@
       <c r="C34">
         <v>166770.999908</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>2621.9999790000002</v>
+      </c>
+      <c r="Z34" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0951252196787298</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="5"/>
+        <v>0.30111214850578893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -1490,8 +1868,22 @@
       <c r="C35">
         <v>21154.000044</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>6347.0001220000004</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6917312168912544</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="5"/>
+        <v>0.124392001242004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -1501,8 +1893,22 @@
       <c r="C36">
         <v>63353.999853000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>6341.0000799999998</v>
+      </c>
+      <c r="Z36" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6933319830521121</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12450970463618471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1918,22 @@
       <c r="C37">
         <v>58741.000175000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>13778.999804999999</v>
+      </c>
+      <c r="Z37" s="7">
+        <f t="shared" si="4"/>
+        <v>0.77925962638476132</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="5"/>
+        <v>5.7298501940055979E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -1523,8 +1943,22 @@
       <c r="C38">
         <v>129912.999868</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>828.00006900000005</v>
+      </c>
+      <c r="Z38" s="7">
+        <f t="shared" si="4"/>
+        <v>12.967895344462828</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95352171650461981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -1533,6 +1967,146 @@
       </c>
       <c r="C39">
         <v>7271.0001469999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="X41" s="7"/>
+      <c r="Y41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="X42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>140391.00003200001</v>
+      </c>
+      <c r="Z42" s="7">
+        <f>(2048*2048*2048/Y42)/100000</f>
+        <v>0.6118579246562853</v>
+      </c>
+      <c r="AA42" s="7">
+        <f>Z42/13.6</f>
+        <v>4.4989553283550393E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="X43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>117842.000008</v>
+      </c>
+      <c r="Z43" s="7">
+        <f t="shared" ref="Z43:Z49" si="6">(2048*2048*2048/Y43)/100000</f>
+        <v>0.72893659233693009</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" ref="AA43:AA49" si="7">Z43/13.6</f>
+        <v>5.3598278848303683E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="X44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>166770.999908</v>
+      </c>
+      <c r="Z44" s="7">
+        <f t="shared" si="6"/>
+        <v>0.51507363970586473</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" si="7"/>
+        <v>3.7873061743078293E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="X45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>21154.000044</v>
+      </c>
+      <c r="Z45" s="7">
+        <f t="shared" si="6"/>
+        <v>4.0606668120133618</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" si="7"/>
+        <v>0.29857844205980599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="X46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>63353.999853000001</v>
+      </c>
+      <c r="Z46" s="7">
+        <f t="shared" si="6"/>
+        <v>1.3558630255281727</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" si="7"/>
+        <v>9.9695810700600934E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="X47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>58741.000175000001</v>
+      </c>
+      <c r="Z47" s="7">
+        <f t="shared" si="6"/>
+        <v>1.4623405400672511</v>
+      </c>
+      <c r="AA47" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10752503971082729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="X48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>129912.999868</v>
+      </c>
+      <c r="Z48" s="7">
+        <f t="shared" si="6"/>
+        <v>0.66120669992440539</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="7"/>
+        <v>4.8618139700323929E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="24:27">
+      <c r="X49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>7271.0001469999997</v>
+      </c>
+      <c r="Z49" s="7">
+        <f t="shared" si="6"/>
+        <v>11.813965642050206</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="7"/>
+        <v>0.8686739442683975</v>
       </c>
     </row>
   </sheetData>
